--- a/biology/Zoologie/Bioparco/Bioparco.xlsx
+++ b/biology/Zoologie/Bioparco/Bioparco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Bioparco de Rome est un parc zoologique italien situé dans le Latium, à Rome, au sein du parc de la Villa Borghèse. Ouvert au public en 1911, il est le plus ancien jardin zoologique d'Italie[1],[2]. Il s'étend sur 17 hectares et héberge plus de 1 100 animaux de 222 espèces[3]. Il accueille en moyenne 750 000 visiteurs par an[4].
+Le Bioparco de Rome est un parc zoologique italien situé dans le Latium, à Rome, au sein du parc de la Villa Borghèse. Ouvert au public en 1911, il est le plus ancien jardin zoologique d'Italie,. Il s'étend sur 17 hectares et héberge plus de 1 100 animaux de 222 espèces. Il accueille en moyenne 750 000 visiteurs par an.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bioparco de Rome est le plus ancien jardin zoologique d’Italie puisqu'il a été conçu en 1908. Il a bénéficié pour sa conception de la collaboration de Carl Hagenbeck qui, en 1907, avait révolutionné l’architecture des zoos modernes avec l’ouverture du zoo de Hambourg. En fait, le parc avait le même style que le parc allemand : des canaux et des fossés au lieu de barreaux, et de grands espaces verts. Le zoo romain a été construit dans la partie nord de la Villa Borghèse, sur une superficie d’environ 12 hectares, et agrandi par la suite. L'entrée monumentale a été réalisée par Armando Brasini. En 1933, l’architecte Raffaele De Vico a commencé à travailler sur de nouvelles zones, destinées à deux attractions principales : une grande volière et une maison pour reptiles, qui ont été achevées en 1935. Le zoo est devenu un Bioparc depuis 1994[5]. En 2004, la société a été transformée en Fondation[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bioparco de Rome est le plus ancien jardin zoologique d’Italie puisqu'il a été conçu en 1908. Il a bénéficié pour sa conception de la collaboration de Carl Hagenbeck qui, en 1907, avait révolutionné l’architecture des zoos modernes avec l’ouverture du zoo de Hambourg. En fait, le parc avait le même style que le parc allemand : des canaux et des fossés au lieu de barreaux, et de grands espaces verts. Le zoo romain a été construit dans la partie nord de la Villa Borghèse, sur une superficie d’environ 12 hectares, et agrandi par la suite. L'entrée monumentale a été réalisée par Armando Brasini. En 1933, l’architecte Raffaele De Vico a commencé à travailler sur de nouvelles zones, destinées à deux attractions principales : une grande volière et une maison pour reptiles, qui ont été achevées en 1935. Le zoo est devenu un Bioparc depuis 1994. En 2004, la société a été transformée en Fondation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Installations et faune présentée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le Bioparc sont présents plus de 200 espèces de mammifères, oiseaux, reptiles et amphibiens provenant des cinq continents[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Bioparc sont présents plus de 200 espèces de mammifères, oiseaux, reptiles et amphibiens provenant des cinq continents.
 			des girafes
 			un hippopotame
 			Singes
